--- a/wi-api-server.xlsx
+++ b/wi-api-server.xlsx
@@ -2234,7 +2234,54 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,
-  </t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve"> "name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">"Ex-Plot"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
@@ -2435,6 +2482,7 @@
         <color rgb="FFA9B7C6"/>
         <rFont val="Source Code Pro"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">{
   </t>
@@ -2445,6 +2493,7 @@
         <color rgb="FF9876AA"/>
         <rFont val="Source Code Pro"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"type"</t>
     </r>
@@ -2454,15 +2503,17 @@
         <color rgb="FFCC7832"/>
         <rFont val="Source Code Pro"/>
         <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"depth-axis"</t>
     </r>
@@ -2472,16 +2523,18 @@
         <color rgb="FFCC7832"/>
         <rFont val="Source Code Pro"/>
         <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"plotId"</t>
     </r>
@@ -2491,15 +2544,17 @@
         <color rgb="FFCC7832"/>
         <rFont val="Source Code Pro"/>
         <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"444"
 </t>
@@ -2510,6 +2565,7 @@
         <color rgb="FFA9B7C6"/>
         <rFont val="Source Code Pro"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">}</t>
     </r>
@@ -2534,6 +2590,7 @@
         <color rgb="FFA9B7C6"/>
         <rFont val="Source Code Pro"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">{
   </t>
@@ -2544,6 +2601,7 @@
         <color rgb="FF9876AA"/>
         <rFont val="Source Code Pro"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"type"</t>
     </r>
@@ -2553,15 +2611,17 @@
         <color rgb="FFCC7832"/>
         <rFont val="Source Code Pro"/>
         <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"depth-axis"</t>
     </r>
@@ -2571,16 +2631,18 @@
         <color rgb="FFCC7832"/>
         <rFont val="Source Code Pro"/>
         <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"id"</t>
     </r>
@@ -2590,15 +2652,17 @@
         <color rgb="FFCC7832"/>
         <rFont val="Source Code Pro"/>
         <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"555"
 </t>
@@ -2609,6 +2673,7 @@
         <color rgb="FFA9B7C6"/>
         <rFont val="Source Code Pro"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">}</t>
     </r>
@@ -2642,6 +2707,7 @@
         <color rgb="FFA9B7C6"/>
         <rFont val="Source Code Pro"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">{
   </t>
@@ -2652,6 +2718,7 @@
         <color rgb="FF9876AA"/>
         <rFont val="Source Code Pro"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"type"</t>
     </r>
@@ -2661,15 +2728,17 @@
         <color rgb="FFCC7832"/>
         <rFont val="Source Code Pro"/>
         <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"track"</t>
     </r>
@@ -2679,16 +2748,18 @@
         <color rgb="FFCC7832"/>
         <rFont val="Source Code Pro"/>
         <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"plotId"</t>
     </r>
@@ -2698,15 +2769,17 @@
         <color rgb="FFCC7832"/>
         <rFont val="Source Code Pro"/>
         <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"444"
 </t>
@@ -2717,6 +2790,7 @@
         <color rgb="FFA9B7C6"/>
         <rFont val="Source Code Pro"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">}</t>
     </r>
@@ -2741,6 +2815,7 @@
         <color rgb="FFA9B7C6"/>
         <rFont val="Source Code Pro"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">{
   </t>
@@ -2751,6 +2826,7 @@
         <color rgb="FF9876AA"/>
         <rFont val="Source Code Pro"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"type"</t>
     </r>
@@ -2760,15 +2836,17 @@
         <color rgb="FFCC7832"/>
         <rFont val="Source Code Pro"/>
         <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"track"</t>
     </r>
@@ -2778,16 +2856,18 @@
         <color rgb="FFCC7832"/>
         <rFont val="Source Code Pro"/>
         <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"id"</t>
     </r>
@@ -2797,15 +2877,17 @@
         <color rgb="FFCC7832"/>
         <rFont val="Source Code Pro"/>
         <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"666"
 </t>
@@ -2816,6 +2898,7 @@
         <color rgb="FFA9B7C6"/>
         <rFont val="Source Code Pro"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">}</t>
     </r>
@@ -2842,7 +2925,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2891,12 +2974,6 @@
       <name val="Source Code Pro"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="Source Code Pro"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2965,7 +3042,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3000,10 +3077,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3085,21 +3158,21 @@
   </sheetPr>
   <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.1428571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.484693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="50.6479591836735"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.9285714285714"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7142857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="19.1173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.7295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.8979591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.8112244897959"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="51.515306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.1428571428571"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.0051020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.8775510204082"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3518,7 +3591,7 @@
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="61.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="73.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>55</v>
       </c>
@@ -3656,7 +3729,7 @@
         <v>31</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="6" t="s">
         <v>71</v>
       </c>
       <c r="H14" s="5"/>
@@ -3697,7 +3770,7 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="6" t="s">
         <v>75</v>
       </c>
       <c r="H15" s="5"/>
@@ -3742,7 +3815,7 @@
         <v>31</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="6" t="s">
         <v>81</v>
       </c>
       <c r="H16" s="5"/>
@@ -3783,7 +3856,7 @@
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="6" t="s">
         <v>85</v>
       </c>
       <c r="H17" s="5"/>

--- a/wi-api-server.xlsx
+++ b/wi-api-server.xlsx
@@ -2242,6 +2242,7 @@
         <color rgb="FF9876AA"/>
         <rFont val="Source Code Pro"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> "name"</t>
     </r>
@@ -2251,15 +2252,17 @@
         <color rgb="FFCC7832"/>
         <rFont val="Source Code Pro"/>
         <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"Ex-Plot"</t>
     </r>
@@ -2269,19 +2272,10 @@
         <color rgb="FFCC7832"/>
         <rFont val="Source Code Pro"/>
         <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
     </r>
     <r>
       <rPr>
@@ -2925,7 +2919,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2974,24 +2968,6 @@
       <name val="Source Code Pro"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF9876AA"/>
-      <name val="Source Code Pro"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC7832"/>
-      <name val="Source Code Pro"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF6A8759"/>
-      <name val="Source Code Pro"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3164,15 +3140,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7142857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="19.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.7295918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.8979591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.8112244897959"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="51.515306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.1428571428571"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.1632653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.6530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.1326530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="52.3775510204082"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.3265306122449"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/wi-api-server.xlsx
+++ b/wi-api-server.xlsx
@@ -1354,314 +1354,6 @@
     <t>post(‘/curve/edit’)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"id"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"33"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"wellId"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"132"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"type"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"curve"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"name"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"Ex-Curve"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"dataset"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>""</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"family"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"Rate of opreration"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"unit"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"mn/m"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"initial-value"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"60"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
     <t>{
   "id": "33"
   "status": "changed"
@@ -2621,6 +2313,308 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"30"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"id_curve"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"33"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"wellId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"132"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"curve"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"Ex-Curve"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"dataset"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"family"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"Rate of opreration"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"unit"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"mn/m"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"initial-value"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"60"
 </t>
     </r>
     <r>
@@ -2698,12 +2692,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2717,6 +2705,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3102,8 +3096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3118,719 +3112,724 @@
     <col min="10" max="10" width="23.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="5" customFormat="1">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:29" s="3" customFormat="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="89.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
     </row>
     <row r="3" spans="1:29" ht="102">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
     </row>
     <row r="4" spans="1:29" ht="63.75">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
     </row>
     <row r="5" spans="1:29" ht="102">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="8" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
     </row>
     <row r="6" spans="1:29" ht="114.75">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="8" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
     </row>
     <row r="7" spans="1:29" ht="63.75">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="8" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
     </row>
     <row r="8" spans="1:29" ht="114.75">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="8" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
     </row>
     <row r="9" spans="1:29" ht="127.5">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="6" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="8" t="s">
+      <c r="J9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="6" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
     </row>
     <row r="11" spans="1:29" ht="76.5">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="4"/>
+      <c r="I11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="6" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
     </row>
     <row r="13" spans="1:29" ht="63.75">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="6" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="4"/>
+      <c r="I13" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="8" t="s">
+      <c r="J13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
     </row>
     <row r="14" spans="1:29" ht="63.75">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="4"/>
+      <c r="I14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
     </row>
     <row r="15" spans="1:29" ht="63.75">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="6" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="4"/>
+      <c r="I15" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="8" t="s">
+      <c r="J15" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
     </row>
     <row r="16" spans="1:29" ht="63.75">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="4"/>
+      <c r="I16" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
     </row>
     <row r="17" spans="1:29" ht="63.75">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="6" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="4"/>
+      <c r="I17" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="8" t="s">
+      <c r="J17" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="E8:E10"/>
     <mergeCell ref="A11:B13"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="A14:A17"/>
@@ -3838,11 +3837,6 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="E8:E10"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/wi-api-server.xlsx
+++ b/wi-api-server.xlsx
@@ -2090,243 +2090,6 @@
   </si>
   <si>
     <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"projectId"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"123"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"type"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"well"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"name"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"Ex-Well"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"top-depth"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>""</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"bottom-depth"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>""</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"step"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"30"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">{
 	</t>
     </r>
@@ -2615,6 +2378,243 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"60"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"idProject"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"123"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"well"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"Ex-Well"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"topDepth"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"10"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"bottomDepth"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"50"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"step"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"30"
 </t>
     </r>
     <r>
@@ -3096,8 +3096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="6" t="s">
@@ -3464,7 +3464,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="6" t="s">
@@ -3825,11 +3825,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="E8:E10"/>
     <mergeCell ref="A11:B13"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="A14:A17"/>
@@ -3837,6 +3832,11 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="E8:E10"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/wi-api-server.xlsx
+++ b/wi-api-server.xlsx
@@ -282,240 +282,6 @@
     <t>edit specified project</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"id"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"123"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"type"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"project"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"name"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"Test-Project-change"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"company"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"Viettel"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"department"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"ABC Department"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"description"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"This is a description"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
     <t>{
   "id": "123"
   "status": "changed"
@@ -542,93 +308,6 @@
     <t>project(JSON Object)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"type"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"project"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"id"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"123"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">}
-</t>
-    </r>
-  </si>
-  <si>
     <t>{
   "id": "123"
   "status": "deleted"
@@ -668,277 +347,6 @@
     <t>post(‘/well/edit’)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"id"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"132"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"projectId"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"123"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"type"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"well"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"name"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"Ex-Well-change"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"top-depth"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"20"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"bottom-depth"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"80"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"step"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"30"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
     <t>{
   "id": "132"
   "status": "changed"
@@ -959,93 +367,6 @@
     <t>delete(‘/well/delete’)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"type"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"well"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"id"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"132"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">}
-</t>
-    </r>
-  </si>
-  <si>
     <t>{
   "id": "123"
   "status": "deleted"
@@ -1059,286 +380,6 @@
   </si>
   <si>
     <t>post(‘/curve/new’)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"wellId"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"132"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"type"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"curve"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"name"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"Ex-Curve"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"dataset"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>""</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"family"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"Rate of opreration"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"unit"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"mn/m"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"initial-value"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"30"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>}</t>
-    </r>
   </si>
   <si>
     <t>{
@@ -1383,175 +424,6 @@
     <t>post(‘/plot/new’)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"type"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"plot"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"projectId"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"123"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> "name"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"Ex-Plot"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"option"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"blank-plot"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
     <t>{
   "id": "444"
   "status": "created"
@@ -1571,92 +443,6 @@
     <t>delete(‘/plot/delete’)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"type"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"plot"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"id"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"444"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
     <t>{
   "id": "444"
   "status": "deleted"
@@ -1683,92 +469,6 @@
     <t>post(‘/depth-axis/new’)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"type"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"depth-axis"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"plotId"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"444"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
     <t>{
   "id": "555"
   "status": "created"
@@ -1782,92 +482,6 @@
     <t>delete(‘/depth-axis/delete’)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"type"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"depth-axis"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"id"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"555"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
     <t>{
   "id": "555"
   "status": "deleted"
@@ -1890,92 +504,6 @@
     <t>post(‘/track/new’)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"type"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"track"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"plotId"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"444"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
     <t>{
   "id": "666"
   "status": "created"
@@ -1989,92 +517,6 @@
     <t>delete(‘/track/delete’)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"type"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"track"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"id"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"666"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
     <t>{
   "id": "666"
   "status": "deleted"
@@ -2090,6 +532,1172 @@
   </si>
   <si>
     <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"idProject"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"123"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"well"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"Ex-Well"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"topDepth"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"10"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"bottomDepth"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"50"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"step"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"30"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"idProject"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"123"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"project"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"Test-Project-change"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"company"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"Viettel"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"department"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"ABC Department"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"description"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"This is a description"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"project"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"idProject"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"123"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">}
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"idWell"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"132"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"projectId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"123"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"well"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"Ex-Well-change"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"top-depth"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"20"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"bottom-depth"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"80"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"step"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"30"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"well"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"idWell"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"132"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">}
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"idWell"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"132"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"curve"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"Ex-Curve"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"dataset"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"family"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"Rate of opreration"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"unit"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"mn/m"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"ini-value"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"30"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">{
 	</t>
     </r>
@@ -2100,7 +1708,7 @@
         <rFont val="Source Code Pro"/>
         <charset val="1"/>
       </rPr>
-      <t>"id_curve"</t>
+      <t>"idCurve"</t>
     </r>
     <r>
       <rPr>
@@ -2137,7 +1745,7 @@
         <rFont val="Source Code Pro"/>
         <charset val="1"/>
       </rPr>
-      <t>"wellId"</t>
+      <t>"idWell"</t>
     </r>
     <r>
       <rPr>
@@ -2359,7 +1967,7 @@
         <rFont val="Source Code Pro"/>
         <charset val="1"/>
       </rPr>
-      <t>"initial-value"</t>
+      <t>"ini-value"</t>
     </r>
     <r>
       <rPr>
@@ -2392,16 +2000,44 @@
   </si>
   <si>
     <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">{
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"plot"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
   </t>
     </r>
     <r>
@@ -2439,6 +2075,95 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> "name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"Ex-Plot"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"option"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"blank-plot"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
   </t>
     </r>
     <r>
@@ -2466,155 +2191,364 @@
         <rFont val="Source Code Pro"/>
         <charset val="1"/>
       </rPr>
-      <t>"well"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"name"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"Ex-Well"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"topDepth"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"10"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"bottomDepth"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"50"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"step"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"30"
+      <t>"plot"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"idPlot"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"444"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"depth-axis"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"idplot"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"444"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"depth-axis"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"idDepthAxis"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"555"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"track"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"idPlot"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"444"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"track"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"idTrack"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"666"
 </t>
     </r>
     <r>
@@ -3097,7 +3031,7 @@
   <dimension ref="A1:AC17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3202,16 +3136,16 @@
         <v>10</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -3237,28 +3171,28 @@
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -3282,25 +3216,25 @@
     </row>
     <row r="5" spans="1:29" ht="102">
       <c r="A5" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>14</v>
@@ -3329,22 +3263,22 @@
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -3370,22 +3304,22 @@
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -3409,25 +3343,25 @@
     </row>
     <row r="8" spans="1:29" ht="114.75">
       <c r="A8" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>14</v>
@@ -3456,22 +3390,22 @@
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -3497,10 +3431,10 @@
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="4"/>
@@ -3530,25 +3464,25 @@
     </row>
     <row r="11" spans="1:29" ht="76.5">
       <c r="A11" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="5" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>14</v>
@@ -3577,10 +3511,10 @@
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -3612,22 +3546,22 @@
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -3651,27 +3585,27 @@
     </row>
     <row r="14" spans="1:29" ht="63.75">
       <c r="A14" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="5" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>14</v>
@@ -3700,22 +3634,22 @@
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="4"/>
       <c r="G15" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -3740,24 +3674,24 @@
     <row r="16" spans="1:29" ht="63.75">
       <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>14</v>
@@ -3786,22 +3720,22 @@
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="4"/>
       <c r="G17" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="6" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -3825,6 +3759,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="E8:E10"/>
     <mergeCell ref="A11:B13"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="A14:A17"/>
@@ -3832,11 +3771,6 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="E8:E10"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/wi-api-server.xlsx
+++ b/wi-api-server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7680" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="89">
   <si>
     <t>Function</t>
   </si>
@@ -57,203 +57,6 @@
   </si>
   <si>
     <t>projectInfo( JSON Object)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"type"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"project"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"name"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"Test-Project"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"company"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>""</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"department"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>""</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"description"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">""
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>}</t>
-    </r>
   </si>
   <si>
     <t>JSON object contains “id” field and status code</t>
@@ -532,16 +335,235 @@
   </si>
   <si>
     <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">{
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"project"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"Test-Project"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"company"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"department"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"description"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">""
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"idWell"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>132</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
   </t>
     </r>
     <r>
@@ -560,16 +582,16 @@
         <rFont val="Source Code Pro"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"123"</t>
+      <t>: 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>23</t>
     </r>
     <r>
       <rPr>
@@ -643,7 +665,7 @@
         <rFont val="Source Code Pro"/>
         <charset val="1"/>
       </rPr>
-      <t>"Ex-Well"</t>
+      <t>"Ex-Well-change"</t>
     </r>
     <r>
       <rPr>
@@ -680,7 +702,7 @@
         <rFont val="Source Code Pro"/>
         <charset val="1"/>
       </rPr>
-      <t>"10"</t>
+      <t>"20"</t>
     </r>
     <r>
       <rPr>
@@ -717,7 +739,7 @@
         <rFont val="Source Code Pro"/>
         <charset val="1"/>
       </rPr>
-      <t>"50"</t>
+      <t>"80"</t>
     </r>
     <r>
       <rPr>
@@ -797,7 +819,7 @@
         <rFont val="Source Code Pro"/>
         <charset val="1"/>
       </rPr>
-      <t>"123"</t>
+      <t>123</t>
     </r>
     <r>
       <rPr>
@@ -997,6 +1019,243 @@
   </si>
   <si>
     <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"idProject"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"well"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"Ex-Well"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"topDepth"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"10"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"bottomDepth"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"50"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"step"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"30"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">{
   </t>
     </r>
@@ -1025,44 +1284,44 @@
         <rFont val="Source Code Pro"/>
         <charset val="1"/>
       </rPr>
-      <t>"project"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"idProject"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"123"
+      <t>"well"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"idWell"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">132
 </t>
     </r>
     <r>
@@ -1079,7 +1338,44 @@
   <si>
     <r>
       <t xml:space="preserve">{
-  </t>
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"idCurve"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>33</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+	</t>
     </r>
     <r>
       <rPr>
@@ -1106,54 +1402,17 @@
         <rFont val="Source Code Pro"/>
         <charset val="1"/>
       </rPr>
-      <t>"132"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"projectId"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"123"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
+      <t>132</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+	</t>
     </r>
     <r>
       <rPr>
@@ -1171,26 +1430,26 @@
         <rFont val="Source Code Pro"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"well"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"curve"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+	</t>
     </r>
     <r>
       <rPr>
@@ -1208,118 +1467,996 @@
         <rFont val="Source Code Pro"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"Ex-Well-change"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"top-depth"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"20"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"bottom-depth"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"80"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"step"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"Ex-Curve"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"dataset"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"family"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"Rate of opreration"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"unit"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"mn/m"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"ini-value"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"60"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"plot"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"idProject"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> "name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"Ex-Plot"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"option"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"blank-plot"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"plot"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"idPlot"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">444
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"depth-axis"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"idDepthAxis"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">555
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"track"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"idPlot"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">444
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"track"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"idTrack"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">666
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>id : INT</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"project"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"idProject"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">12
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">}
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"idWell"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>132</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"curve"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"Ex-Curve"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"dataset"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"family"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"Rate of opreration"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"unit"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"mn/m"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"ini-value"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:</t>
     </r>
     <r>
       <rPr>
@@ -1371,827 +2508,7 @@
         <rFont val="Source Code Pro"/>
         <charset val="1"/>
       </rPr>
-      <t>"well"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"idWell"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"132"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">}
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"idWell"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"132"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"type"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"curve"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"name"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"Ex-Curve"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"dataset"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>""</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"family"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"Rate of opreration"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"unit"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"mn/m"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"ini-value"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"30"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"idCurve"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"33"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"idWell"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"132"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"type"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"curve"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"name"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"Ex-Curve"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"dataset"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>""</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"family"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"Rate of opreration"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"unit"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"mn/m"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"ini-value"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"60"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"type"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"plot"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"idProject"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"123"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> "name"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"Ex-Plot"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"option"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"blank-plot"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"type"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"plot"</t>
+      <t>"depth-axis"</t>
     </r>
     <r>
       <rPr>
@@ -2219,336 +2536,16 @@
         <rFont val="Source Code Pro"/>
         <charset val="1"/>
       </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"444"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"type"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"depth-axis"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"idplot"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"444"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"type"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"depth-axis"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"idDepthAxis"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"555"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"type"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"track"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"idPlot"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"444"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"type"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"track"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"idTrack"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"666"
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">444
 </t>
     </r>
     <r>
@@ -3030,8 +3027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3089,16 +3086,16 @@
         <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -3124,13 +3121,13 @@
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>10</v>
@@ -3139,13 +3136,13 @@
         <v>76</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -3171,28 +3168,28 @@
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -3216,28 +3213,28 @@
     </row>
     <row r="5" spans="1:29" ht="102">
       <c r="A5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -3263,22 +3260,22 @@
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -3304,22 +3301,22 @@
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -3343,28 +3340,30 @@
     </row>
     <row r="8" spans="1:29" ht="114.75">
       <c r="A8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="E8" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="I8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -3390,22 +3389,22 @@
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -3431,10 +3430,10 @@
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="4"/>
@@ -3464,28 +3463,28 @@
     </row>
     <row r="11" spans="1:29" ht="76.5">
       <c r="A11" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="E11" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -3511,10 +3510,10 @@
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -3546,22 +3545,22 @@
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -3585,30 +3584,30 @@
     </row>
     <row r="14" spans="1:29" ht="63.75">
       <c r="A14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="E14" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -3634,22 +3633,22 @@
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="4"/>
       <c r="G15" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -3674,27 +3673,27 @@
     <row r="16" spans="1:29" ht="63.75">
       <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="E16" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -3720,22 +3719,22 @@
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="4"/>
       <c r="G17" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -3759,11 +3758,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="E8:E10"/>
     <mergeCell ref="A11:B13"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="A14:A17"/>
@@ -3771,6 +3765,11 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="E8:E10"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/wi-api-server.xlsx
+++ b/wi-api-server.xlsx
@@ -3106,21 +3106,21 @@
   </sheetPr>
   <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="19.765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.484693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.4081632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.5663265306122"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="53.3469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.5765306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.6530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="20.0867346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.8112244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.2755102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="54.2142857142857"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.7908163265306"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.0816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.75"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/wi-api-server.xlsx
+++ b/wi-api-server.xlsx
@@ -2175,7 +2175,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">"idProject"</t>
+      <t xml:space="preserve">"idWell"</t>
     </r>
     <r>
       <rPr>
@@ -3106,21 +3106,21 @@
   </sheetPr>
   <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="20.0867346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.8112244897959"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.2755102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="54.2142857142857"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.7908163265306"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.0816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.2551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="20.4132653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1326530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.030612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.4285714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="55.0765306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.0051020408163"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.515306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3465,7 +3465,7 @@
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="127.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="121.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
@@ -3662,7 +3662,7 @@
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>68</v>
       </c>

--- a/wi-api-server.xlsx
+++ b/wi-api-server.xlsx
@@ -3106,21 +3106,21 @@
   </sheetPr>
   <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.2551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="20.4132653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.030612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.4285714285714"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="55.0765306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.0051020408163"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.515306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="20.734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.5663265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.7857142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.8622448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="56.0510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.3316326530612"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/wi-api-server.xlsx
+++ b/wi-api-server.xlsx
@@ -3106,21 +3106,20 @@
   </sheetPr>
   <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="20.734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.5663265306122"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.7857142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.8622448979592"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="56.0510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.3316326530612"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.9489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.6887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.6479591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.2959183673469"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="56.9132653061225"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.6530612244898"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.3775510204082"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
